--- a/data/sample data/pres_sample.xlsx
+++ b/data/sample data/pres_sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexlin/PycharmProjects/thesis/thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexlin/PycharmProjects/thesis/data/sample data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA64DB8A-12C0-8E44-9722-03668F84549F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EF9F40-2F6B-3245-B3A7-E932F0E57427}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="1045">
   <si>
     <t>title</t>
   </si>
@@ -3420,13 +3420,28 @@
     <t>We risk losing the edge as a nation and China and the rest of the world are catching up We used to invest almost 2 percent of our entire GDP in research and development now 07 percent</t>
   </si>
   <si>
-    <t>senti_label</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>pos_label</t>
+  </si>
+  <si>
+    <t>neg_label</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Relevance</t>
   </si>
 </sst>
 </file>
@@ -3832,10 +3847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3844,7 +3859,7 @@
     <col min="5" max="5" width="130.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3861,10 +3876,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1039</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3881,10 +3902,13 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3901,10 +3925,13 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3918,10 +3945,13 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3935,10 +3965,13 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -3952,10 +3985,13 @@
         <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -3972,10 +4008,13 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -3992,10 +4031,13 @@
         <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -4012,10 +4054,13 @@
         <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -4032,10 +4077,13 @@
         <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -4049,10 +4097,13 @@
         <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -4069,10 +4120,13 @@
         <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>179</v>
       </c>
@@ -4089,10 +4143,13 @@
         <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>186</v>
       </c>
@@ -4109,10 +4166,13 @@
         <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>190</v>
       </c>
@@ -4129,10 +4189,13 @@
         <v>191</v>
       </c>
       <c r="F15" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -4146,10 +4209,13 @@
         <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="210" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="210" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>222</v>
       </c>
@@ -4166,10 +4232,13 @@
         <v>223</v>
       </c>
       <c r="F17" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>232</v>
       </c>
@@ -4186,10 +4255,13 @@
         <v>233</v>
       </c>
       <c r="F18" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>247</v>
       </c>
@@ -4206,10 +4278,13 @@
         <v>248</v>
       </c>
       <c r="F19" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>250</v>
       </c>
@@ -4226,10 +4301,13 @@
         <v>251</v>
       </c>
       <c r="F20" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>266</v>
       </c>
@@ -4246,10 +4324,13 @@
         <v>267</v>
       </c>
       <c r="F21" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>276</v>
       </c>
@@ -4266,10 +4347,13 @@
         <v>277</v>
       </c>
       <c r="F22" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>301</v>
       </c>
@@ -4283,10 +4367,13 @@
         <v>302</v>
       </c>
       <c r="F23" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>318</v>
       </c>
@@ -4303,10 +4390,13 @@
         <v>319</v>
       </c>
       <c r="F24" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>322</v>
       </c>
@@ -4323,10 +4413,13 @@
         <v>323</v>
       </c>
       <c r="F25" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>328</v>
       </c>
@@ -4343,10 +4436,13 @@
         <v>329</v>
       </c>
       <c r="F26" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>334</v>
       </c>
@@ -4360,10 +4456,13 @@
         <v>335</v>
       </c>
       <c r="F27" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>338</v>
       </c>
@@ -4380,10 +4479,13 @@
         <v>339</v>
       </c>
       <c r="F28" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>341</v>
       </c>
@@ -4400,10 +4502,13 @@
         <v>342</v>
       </c>
       <c r="F29" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="150" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="150" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>363</v>
       </c>
@@ -4420,10 +4525,13 @@
         <v>364</v>
       </c>
       <c r="F30" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -4440,10 +4548,13 @@
         <v>380</v>
       </c>
       <c r="F31" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>393</v>
       </c>
@@ -4457,10 +4568,13 @@
         <v>394</v>
       </c>
       <c r="F32" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>461</v>
       </c>
@@ -4474,10 +4588,13 @@
         <v>462</v>
       </c>
       <c r="F33" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>469</v>
       </c>
@@ -4494,10 +4611,13 @@
         <v>470</v>
       </c>
       <c r="F34" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>476</v>
       </c>
@@ -4514,10 +4634,13 @@
         <v>477</v>
       </c>
       <c r="F35" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>489</v>
       </c>
@@ -4534,10 +4657,13 @@
         <v>490</v>
       </c>
       <c r="F36" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>503</v>
       </c>
@@ -4551,10 +4677,13 @@
         <v>504</v>
       </c>
       <c r="F37" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>535</v>
       </c>
@@ -4571,10 +4700,13 @@
         <v>536</v>
       </c>
       <c r="F38" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>553</v>
       </c>
@@ -4588,10 +4720,13 @@
         <v>554</v>
       </c>
       <c r="F39" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>557</v>
       </c>
@@ -4608,10 +4743,13 @@
         <v>558</v>
       </c>
       <c r="F40" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>571</v>
       </c>
@@ -4628,10 +4766,13 @@
         <v>572</v>
       </c>
       <c r="F41" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>578</v>
       </c>
@@ -4645,10 +4786,13 @@
         <v>579</v>
       </c>
       <c r="F42" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>599</v>
       </c>
@@ -4665,10 +4809,13 @@
         <v>600</v>
       </c>
       <c r="F43" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>607</v>
       </c>
@@ -4685,10 +4832,13 @@
         <v>608</v>
       </c>
       <c r="F44" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>611</v>
       </c>
@@ -4705,10 +4855,13 @@
         <v>612</v>
       </c>
       <c r="F45" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>634</v>
       </c>
@@ -4722,10 +4875,13 @@
         <v>635</v>
       </c>
       <c r="F46" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>682</v>
       </c>
@@ -4739,10 +4895,13 @@
         <v>683</v>
       </c>
       <c r="F47" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>689</v>
       </c>
@@ -4759,10 +4918,13 @@
         <v>690</v>
       </c>
       <c r="F48" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>696</v>
       </c>
@@ -4776,10 +4938,13 @@
         <v>697</v>
       </c>
       <c r="F49" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>704</v>
       </c>
@@ -4793,10 +4958,13 @@
         <v>705</v>
       </c>
       <c r="F50" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>731</v>
       </c>
@@ -4813,10 +4981,13 @@
         <v>732</v>
       </c>
       <c r="F51" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -4833,10 +5004,13 @@
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>753</v>
       </c>
@@ -4850,10 +5024,13 @@
         <v>754</v>
       </c>
       <c r="F53" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>770</v>
       </c>
@@ -4870,10 +5047,13 @@
         <v>771</v>
       </c>
       <c r="F54" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>782</v>
       </c>
@@ -4890,10 +5070,13 @@
         <v>783</v>
       </c>
       <c r="F55" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>785</v>
       </c>
@@ -4910,10 +5093,13 @@
         <v>786</v>
       </c>
       <c r="F56" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>819</v>
       </c>
@@ -4930,10 +5116,13 @@
         <v>820</v>
       </c>
       <c r="F57" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="135" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="135" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>825</v>
       </c>
@@ -4950,10 +5139,13 @@
         <v>826</v>
       </c>
       <c r="F58" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>835</v>
       </c>
@@ -4967,10 +5159,13 @@
         <v>836</v>
       </c>
       <c r="F59" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>839</v>
       </c>
@@ -4987,10 +5182,13 @@
         <v>840</v>
       </c>
       <c r="F60" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="135" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="135" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>843</v>
       </c>
@@ -5007,10 +5205,13 @@
         <v>844</v>
       </c>
       <c r="F61" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>867</v>
       </c>
@@ -5027,10 +5228,13 @@
         <v>868</v>
       </c>
       <c r="F62" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>871</v>
       </c>
@@ -5047,10 +5251,13 @@
         <v>872</v>
       </c>
       <c r="F63" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>874</v>
       </c>
@@ -5067,10 +5274,13 @@
         <v>875</v>
       </c>
       <c r="F64" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>892</v>
       </c>
@@ -5084,10 +5294,13 @@
         <v>893</v>
       </c>
       <c r="F65" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>907</v>
       </c>
@@ -5104,10 +5317,13 @@
         <v>908</v>
       </c>
       <c r="F66" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>921</v>
       </c>
@@ -5124,10 +5340,13 @@
         <v>922</v>
       </c>
       <c r="F67" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>951</v>
       </c>
@@ -5141,10 +5360,13 @@
         <v>952</v>
       </c>
       <c r="F68" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>968</v>
       </c>
@@ -5158,10 +5380,13 @@
         <v>683</v>
       </c>
       <c r="F69" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1000</v>
       </c>
@@ -5178,10 +5403,13 @@
         <v>1001</v>
       </c>
       <c r="F70" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1004</v>
       </c>
@@ -5198,10 +5426,13 @@
         <v>1005</v>
       </c>
       <c r="F71" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1022</v>
       </c>
@@ -5218,10 +5449,13 @@
         <v>1023</v>
       </c>
       <c r="F72" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1026</v>
       </c>
@@ -5238,10 +5472,13 @@
         <v>1027</v>
       </c>
       <c r="F73" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>47</v>
       </c>
@@ -5258,10 +5495,13 @@
         <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -5278,10 +5518,13 @@
         <v>58</v>
       </c>
       <c r="F75" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="210" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="210" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>64</v>
       </c>
@@ -5298,10 +5541,13 @@
         <v>65</v>
       </c>
       <c r="F76" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -5318,10 +5564,13 @@
         <v>87</v>
       </c>
       <c r="F77" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -5338,10 +5587,13 @@
         <v>94</v>
       </c>
       <c r="F78" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="120" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -5358,10 +5610,13 @@
         <v>98</v>
       </c>
       <c r="F79" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>136</v>
       </c>
@@ -5375,10 +5630,13 @@
         <v>137</v>
       </c>
       <c r="F80" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -5392,10 +5650,13 @@
         <v>144</v>
       </c>
       <c r="F81" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -5412,10 +5673,13 @@
         <v>152</v>
       </c>
       <c r="F82" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>176</v>
       </c>
@@ -5432,10 +5696,13 @@
         <v>177</v>
       </c>
       <c r="F83" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>236</v>
       </c>
@@ -5449,10 +5716,13 @@
         <v>237</v>
       </c>
       <c r="F84" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>263</v>
       </c>
@@ -5469,10 +5739,13 @@
         <v>264</v>
       </c>
       <c r="F85" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>270</v>
       </c>
@@ -5486,10 +5759,13 @@
         <v>271</v>
       </c>
       <c r="F86" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>305</v>
       </c>
@@ -5506,10 +5782,13 @@
         <v>306</v>
       </c>
       <c r="F87" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -5526,10 +5805,13 @@
         <v>350</v>
       </c>
       <c r="F88" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>359</v>
       </c>
@@ -5546,10 +5828,13 @@
         <v>360</v>
       </c>
       <c r="F89" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>367</v>
       </c>
@@ -5563,10 +5848,13 @@
         <v>368</v>
       </c>
       <c r="F90" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>375</v>
       </c>
@@ -5583,10 +5871,13 @@
         <v>376</v>
       </c>
       <c r="F91" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>383</v>
       </c>
@@ -5600,10 +5891,13 @@
         <v>384</v>
       </c>
       <c r="F92" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>387</v>
       </c>
@@ -5620,10 +5914,13 @@
         <v>388</v>
       </c>
       <c r="F93" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>401</v>
       </c>
@@ -5640,10 +5937,13 @@
         <v>402</v>
       </c>
       <c r="F94" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>408</v>
       </c>
@@ -5660,10 +5960,13 @@
         <v>409</v>
       </c>
       <c r="F95" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="120" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>431</v>
       </c>
@@ -5680,10 +5983,13 @@
         <v>432</v>
       </c>
       <c r="F96" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>482</v>
       </c>
@@ -5700,10 +6006,13 @@
         <v>483</v>
       </c>
       <c r="F97" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>485</v>
       </c>
@@ -5717,10 +6026,13 @@
         <v>486</v>
       </c>
       <c r="F98" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="165" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="165" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>493</v>
       </c>
@@ -5737,10 +6049,13 @@
         <v>494</v>
       </c>
       <c r="F99" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>496</v>
       </c>
@@ -5757,10 +6072,13 @@
         <v>497</v>
       </c>
       <c r="F100" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>517</v>
       </c>
@@ -5777,10 +6095,13 @@
         <v>518</v>
       </c>
       <c r="F101" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>520</v>
       </c>
@@ -5794,10 +6115,13 @@
         <v>521</v>
       </c>
       <c r="F102" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>524</v>
       </c>
@@ -5811,10 +6135,13 @@
         <v>525</v>
       </c>
       <c r="F103" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>550</v>
       </c>
@@ -5831,10 +6158,13 @@
         <v>551</v>
       </c>
       <c r="F104" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>564</v>
       </c>
@@ -5851,10 +6181,13 @@
         <v>565</v>
       </c>
       <c r="F105" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>581</v>
       </c>
@@ -5868,10 +6201,13 @@
         <v>582</v>
       </c>
       <c r="F106" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>595</v>
       </c>
@@ -5885,10 +6221,13 @@
         <v>596</v>
       </c>
       <c r="F107" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>623</v>
       </c>
@@ -5902,10 +6241,13 @@
         <v>624</v>
       </c>
       <c r="F108" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>631</v>
       </c>
@@ -5922,10 +6264,13 @@
         <v>632</v>
       </c>
       <c r="F109" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="150" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="150" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>645</v>
       </c>
@@ -5942,10 +6287,13 @@
         <v>646</v>
       </c>
       <c r="F110" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>648</v>
       </c>
@@ -5959,10 +6307,13 @@
         <v>649</v>
       </c>
       <c r="F111" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>652</v>
       </c>
@@ -5976,10 +6327,13 @@
         <v>653</v>
       </c>
       <c r="F112" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>659</v>
       </c>
@@ -5996,10 +6350,13 @@
         <v>660</v>
       </c>
       <c r="F113" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>662</v>
       </c>
@@ -6013,10 +6370,13 @@
         <v>663</v>
       </c>
       <c r="F114" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>666</v>
       </c>
@@ -6033,10 +6393,13 @@
         <v>667</v>
       </c>
       <c r="F115" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>679</v>
       </c>
@@ -6053,10 +6416,13 @@
         <v>680</v>
       </c>
       <c r="F116" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>686</v>
       </c>
@@ -6073,10 +6439,13 @@
         <v>687</v>
       </c>
       <c r="F117" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>721</v>
       </c>
@@ -6093,10 +6462,13 @@
         <v>722</v>
       </c>
       <c r="F118" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>737</v>
       </c>
@@ -6113,10 +6485,13 @@
         <v>738</v>
       </c>
       <c r="F119" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>757</v>
       </c>
@@ -6133,10 +6508,13 @@
         <v>758</v>
       </c>
       <c r="F120" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>763</v>
       </c>
@@ -6150,10 +6528,13 @@
         <v>764</v>
       </c>
       <c r="F121" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>767</v>
       </c>
@@ -6170,10 +6551,13 @@
         <v>768</v>
       </c>
       <c r="F122" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>796</v>
       </c>
@@ -6187,10 +6571,13 @@
         <v>797</v>
       </c>
       <c r="F123" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>800</v>
       </c>
@@ -6207,10 +6594,13 @@
         <v>801</v>
       </c>
       <c r="F124" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>803</v>
       </c>
@@ -6224,10 +6614,13 @@
         <v>804</v>
       </c>
       <c r="F125" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>807</v>
       </c>
@@ -6241,10 +6634,13 @@
         <v>808</v>
       </c>
       <c r="F126" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>832</v>
       </c>
@@ -6261,10 +6657,13 @@
         <v>833</v>
       </c>
       <c r="F127" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>847</v>
       </c>
@@ -6281,10 +6680,13 @@
         <v>848</v>
       </c>
       <c r="F128" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>857</v>
       </c>
@@ -6301,10 +6703,13 @@
         <v>858</v>
       </c>
       <c r="F129" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>860</v>
       </c>
@@ -6321,10 +6726,13 @@
         <v>861</v>
       </c>
       <c r="F130" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>877</v>
       </c>
@@ -6341,10 +6749,13 @@
         <v>878</v>
       </c>
       <c r="F131" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>881</v>
       </c>
@@ -6361,10 +6772,13 @@
         <v>882</v>
       </c>
       <c r="F132" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>958</v>
       </c>
@@ -6381,10 +6795,13 @@
         <v>959</v>
       </c>
       <c r="F133" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>961</v>
       </c>
@@ -6401,10 +6818,13 @@
         <v>962</v>
       </c>
       <c r="F134" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>964</v>
       </c>
@@ -6418,10 +6838,13 @@
         <v>965</v>
       </c>
       <c r="F135" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>970</v>
       </c>
@@ -6435,10 +6858,13 @@
         <v>971</v>
       </c>
       <c r="F136" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>989</v>
       </c>
@@ -6455,10 +6881,13 @@
         <v>990</v>
       </c>
       <c r="F137" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1014</v>
       </c>
@@ -6472,10 +6901,13 @@
         <v>1015</v>
       </c>
       <c r="F138" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1034</v>
       </c>
@@ -6492,10 +6924,13 @@
         <v>1035</v>
       </c>
       <c r="F139" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -6508,8 +6943,14 @@
       <c r="E140" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -6525,8 +6966,14 @@
       <c r="E141" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -6539,8 +6986,14 @@
       <c r="E142" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="135" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="135" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>29</v>
       </c>
@@ -6556,8 +7009,14 @@
       <c r="E143" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>33</v>
       </c>
@@ -6570,8 +7029,14 @@
       <c r="E144" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -6587,2286 +7052,3096 @@
       <c r="E145" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>50</v>
+      </c>
+      <c r="B146" s="2">
+        <v>40837</v>
+      </c>
+      <c r="C146" t="s">
+        <v>52</v>
+      </c>
+      <c r="D146" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>53</v>
+      </c>
+      <c r="B147" s="2">
+        <v>37748</v>
+      </c>
+      <c r="C147" t="s">
+        <v>55</v>
+      </c>
+      <c r="D147" t="s">
+        <v>56</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>60</v>
+      </c>
+      <c r="C148" t="s">
+        <v>62</v>
+      </c>
+      <c r="D148" t="s">
+        <v>63</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>71</v>
+      </c>
+      <c r="B149" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C149" t="s">
+        <v>73</v>
+      </c>
+      <c r="D149" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>74</v>
+      </c>
+      <c r="B150" s="2">
+        <v>36690</v>
+      </c>
+      <c r="C150" t="s">
+        <v>76</v>
+      </c>
+      <c r="D150" t="s">
+        <v>77</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>78</v>
+      </c>
+      <c r="B151" s="2">
+        <v>37504</v>
+      </c>
+      <c r="C151" t="s">
+        <v>80</v>
+      </c>
+      <c r="D151" t="s">
+        <v>81</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="165" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>82</v>
+      </c>
+      <c r="B152" s="2">
+        <v>43652</v>
+      </c>
+      <c r="C152" t="s">
+        <v>84</v>
+      </c>
+      <c r="D152" t="s">
+        <v>85</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>100</v>
+      </c>
+      <c r="B153" s="2">
+        <v>38432</v>
+      </c>
+      <c r="C153" t="s">
+        <v>102</v>
+      </c>
+      <c r="D153" t="s">
+        <v>103</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>104</v>
+      </c>
+      <c r="C154" t="s">
+        <v>106</v>
+      </c>
+      <c r="D154" t="s">
+        <v>107</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>108</v>
+      </c>
+      <c r="C155" t="s">
+        <v>110</v>
+      </c>
+      <c r="D155" t="s">
+        <v>111</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>115</v>
+      </c>
+      <c r="C156" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156" t="s">
+        <v>118</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>119</v>
+      </c>
+      <c r="C157" t="s">
+        <v>121</v>
+      </c>
+      <c r="D157" t="s">
+        <v>43</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" t="s">
+        <v>127</v>
+      </c>
+      <c r="D158" t="s">
+        <v>128</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F158" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>133</v>
+      </c>
+      <c r="B159" s="2">
+        <v>40954</v>
+      </c>
+      <c r="C159" t="s">
+        <v>135</v>
+      </c>
+      <c r="D159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>140</v>
+      </c>
+      <c r="B160" s="2">
+        <v>43217</v>
+      </c>
+      <c r="C160" t="s">
+        <v>142</v>
+      </c>
+      <c r="D160" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="2">
+        <v>36679</v>
+      </c>
+      <c r="C161" t="s">
+        <v>164</v>
+      </c>
+      <c r="D161" t="s">
+        <v>165</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="2">
+        <v>41166</v>
+      </c>
+      <c r="C162" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" s="2">
+        <v>38269</v>
+      </c>
+      <c r="C163" t="s">
+        <v>171</v>
+      </c>
+      <c r="D163" t="s">
+        <v>172</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" t="s">
+        <v>175</v>
+      </c>
+      <c r="D164" t="s">
+        <v>128</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>182</v>
+      </c>
+      <c r="C165" t="s">
+        <v>184</v>
+      </c>
+      <c r="D165" t="s">
+        <v>185</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>193</v>
+      </c>
+      <c r="B166" s="2">
+        <v>39930</v>
+      </c>
+      <c r="C166" t="s">
+        <v>195</v>
+      </c>
+      <c r="D166" t="s">
+        <v>24</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>196</v>
+      </c>
+      <c r="B167" s="2">
+        <v>38700</v>
+      </c>
+      <c r="C167" t="s">
+        <v>198</v>
+      </c>
+      <c r="D167" t="s">
+        <v>199</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>200</v>
+      </c>
+      <c r="B168" s="2">
+        <v>41844</v>
+      </c>
+      <c r="C168" t="s">
+        <v>202</v>
+      </c>
+      <c r="D168" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" t="s">
+        <v>205</v>
+      </c>
+      <c r="D169" t="s">
+        <v>206</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>207</v>
+      </c>
+      <c r="B170" s="2">
+        <v>36587</v>
+      </c>
+      <c r="C170" t="s">
+        <v>209</v>
+      </c>
+      <c r="D170" t="s">
+        <v>210</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>214</v>
+      </c>
+      <c r="B171" s="2">
+        <v>36954</v>
+      </c>
+      <c r="C171" t="s">
+        <v>216</v>
+      </c>
+      <c r="D171" t="s">
+        <v>217</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>225</v>
+      </c>
+      <c r="B172" s="2">
+        <v>39743</v>
+      </c>
+      <c r="C172" t="s">
+        <v>227</v>
+      </c>
+      <c r="D172" t="s">
+        <v>228</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>240</v>
+      </c>
+      <c r="B173" s="2">
+        <v>37634</v>
+      </c>
+      <c r="C173" t="s">
+        <v>242</v>
+      </c>
+      <c r="D173" t="s">
+        <v>243</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>244</v>
+      </c>
+      <c r="B174" s="2">
+        <v>43676</v>
+      </c>
+      <c r="C174" t="s">
+        <v>246</v>
+      </c>
+      <c r="D174" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>254</v>
+      </c>
+      <c r="B175" s="2">
+        <v>43995</v>
+      </c>
+      <c r="C175" t="s">
+        <v>256</v>
+      </c>
+      <c r="D175" t="s">
+        <v>24</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>257</v>
+      </c>
+      <c r="B176" s="2">
+        <v>44809</v>
+      </c>
+      <c r="C176" t="s">
+        <v>259</v>
+      </c>
+      <c r="D176" t="s">
+        <v>24</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>260</v>
+      </c>
+      <c r="B177" s="2">
+        <v>40889</v>
+      </c>
+      <c r="C177" t="s">
+        <v>262</v>
+      </c>
+      <c r="D177" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>273</v>
+      </c>
+      <c r="B178" s="2">
+        <v>44712</v>
+      </c>
+      <c r="C178" t="s">
+        <v>275</v>
+      </c>
+      <c r="D178" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>282</v>
+      </c>
+      <c r="C179" t="s">
+        <v>284</v>
+      </c>
+      <c r="D179" t="s">
+        <v>285</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>286</v>
+      </c>
+      <c r="C180" t="s">
+        <v>288</v>
+      </c>
+      <c r="D180" t="s">
+        <v>289</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>290</v>
+      </c>
+      <c r="B181" s="2">
+        <v>37291</v>
+      </c>
+      <c r="C181" t="s">
+        <v>292</v>
+      </c>
+      <c r="D181" t="s">
+        <v>293</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>294</v>
+      </c>
+      <c r="B182" s="2">
+        <v>36972</v>
+      </c>
+      <c r="C182" t="s">
+        <v>296</v>
+      </c>
+      <c r="D182" t="s">
+        <v>297</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>298</v>
+      </c>
+      <c r="B183" s="2">
+        <v>42706</v>
+      </c>
+      <c r="C183" t="s">
+        <v>300</v>
+      </c>
+      <c r="D183" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>308</v>
+      </c>
+      <c r="B184" s="2">
+        <v>42199</v>
+      </c>
+      <c r="C184" t="s">
+        <v>310</v>
+      </c>
+      <c r="D184" t="s">
+        <v>24</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>311</v>
+      </c>
+      <c r="B185" s="2">
+        <v>43867</v>
+      </c>
+      <c r="C185" t="s">
+        <v>313</v>
+      </c>
+      <c r="D185" t="s">
+        <v>24</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>325</v>
+      </c>
+      <c r="B186" s="2">
+        <v>40933</v>
+      </c>
+      <c r="C186" t="s">
+        <v>327</v>
+      </c>
+      <c r="D186" t="s">
+        <v>24</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>331</v>
+      </c>
+      <c r="B187" s="2">
+        <v>44848</v>
+      </c>
+      <c r="C187" t="s">
+        <v>333</v>
+      </c>
+      <c r="D187" t="s">
+        <v>24</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>345</v>
+      </c>
+      <c r="C188" t="s">
+        <v>347</v>
+      </c>
+      <c r="D188" t="s">
+        <v>348</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>356</v>
+      </c>
+      <c r="B189" s="2">
+        <v>39883</v>
+      </c>
+      <c r="C189" t="s">
+        <v>358</v>
+      </c>
+      <c r="D189" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>390</v>
+      </c>
+      <c r="B190" s="2">
+        <v>39970</v>
+      </c>
+      <c r="C190" t="s">
+        <v>392</v>
+      </c>
+      <c r="D190" t="s">
+        <v>24</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>397</v>
+      </c>
+      <c r="C191" t="s">
+        <v>399</v>
+      </c>
+      <c r="D191" t="s">
+        <v>400</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>404</v>
+      </c>
+      <c r="C192" t="s">
+        <v>406</v>
+      </c>
+      <c r="D192" t="s">
+        <v>407</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>411</v>
+      </c>
+      <c r="B193" s="2">
+        <v>44798</v>
+      </c>
+      <c r="C193" t="s">
+        <v>413</v>
+      </c>
+      <c r="D193" t="s">
+        <v>24</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>414</v>
+      </c>
+      <c r="C194" t="s">
+        <v>416</v>
+      </c>
+      <c r="D194" t="s">
+        <v>417</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>418</v>
+      </c>
+      <c r="C195" t="s">
+        <v>420</v>
+      </c>
+      <c r="D195" t="s">
+        <v>421</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>422</v>
+      </c>
+      <c r="B196" s="2">
+        <v>44506</v>
+      </c>
+      <c r="C196" t="s">
+        <v>424</v>
+      </c>
+      <c r="D196" t="s">
+        <v>24</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>425</v>
+      </c>
+      <c r="B197" s="2">
+        <v>40634</v>
+      </c>
+      <c r="C197" t="s">
+        <v>427</v>
+      </c>
+      <c r="D197" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>428</v>
+      </c>
+      <c r="B198" s="2">
+        <v>40876</v>
+      </c>
+      <c r="C198" t="s">
+        <v>430</v>
+      </c>
+      <c r="D198" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="135" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>435</v>
+      </c>
+      <c r="B199" s="2">
+        <v>38747</v>
+      </c>
+      <c r="C199" t="s">
+        <v>437</v>
+      </c>
+      <c r="D199" t="s">
+        <v>438</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>439</v>
+      </c>
+      <c r="C200" t="s">
+        <v>441</v>
+      </c>
+      <c r="D200" t="s">
+        <v>442</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>443</v>
+      </c>
+      <c r="C201" t="s">
+        <v>445</v>
+      </c>
+      <c r="D201" t="s">
+        <v>446</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>450</v>
+      </c>
+      <c r="B202" s="2">
+        <v>39743</v>
+      </c>
+      <c r="C202" t="s">
+        <v>452</v>
+      </c>
+      <c r="D202" t="s">
+        <v>453</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G202" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>454</v>
+      </c>
+      <c r="C203" t="s">
+        <v>456</v>
+      </c>
+      <c r="D203" t="s">
+        <v>457</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>465</v>
+      </c>
+      <c r="C204" t="s">
+        <v>467</v>
+      </c>
+      <c r="D204" t="s">
+        <v>468</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>472</v>
+      </c>
+      <c r="B205" s="2">
+        <v>41435</v>
+      </c>
+      <c r="C205" t="s">
+        <v>474</v>
+      </c>
+      <c r="D205" t="s">
+        <v>475</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>499</v>
+      </c>
+      <c r="C206" t="s">
+        <v>501</v>
+      </c>
+      <c r="D206" t="s">
+        <v>502</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>507</v>
+      </c>
+      <c r="B207" s="2">
+        <v>37130</v>
+      </c>
+      <c r="C207" t="s">
+        <v>509</v>
+      </c>
+      <c r="D207" t="s">
+        <v>510</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G207" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>511</v>
+      </c>
+      <c r="B208" s="2">
+        <v>44057</v>
+      </c>
+      <c r="C208" t="s">
+        <v>513</v>
+      </c>
+      <c r="D208" t="s">
+        <v>24</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>514</v>
+      </c>
+      <c r="B209" s="2">
+        <v>44816</v>
+      </c>
+      <c r="C209" t="s">
+        <v>516</v>
+      </c>
+      <c r="D209" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G209" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>527</v>
+      </c>
+      <c r="B210" s="2">
+        <v>38608</v>
+      </c>
+      <c r="C210" t="s">
+        <v>529</v>
+      </c>
+      <c r="D210" t="s">
+        <v>530</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G210" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>539</v>
+      </c>
+      <c r="B211" s="2">
+        <v>40295</v>
+      </c>
+      <c r="C211" t="s">
+        <v>541</v>
+      </c>
+      <c r="D211" t="s">
+        <v>24</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G211" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>542</v>
+      </c>
+      <c r="C212" t="s">
+        <v>544</v>
+      </c>
+      <c r="D212" t="s">
+        <v>545</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G212" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>546</v>
+      </c>
+      <c r="B213" s="2">
+        <v>38215</v>
+      </c>
+      <c r="C213" t="s">
+        <v>548</v>
+      </c>
+      <c r="D213" t="s">
+        <v>549</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>561</v>
+      </c>
+      <c r="B214" s="2">
+        <v>41403</v>
+      </c>
+      <c r="C214" t="s">
+        <v>563</v>
+      </c>
+      <c r="D214" t="s">
+        <v>24</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G214" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>567</v>
+      </c>
+      <c r="C215" t="s">
+        <v>569</v>
+      </c>
+      <c r="D215" t="s">
+        <v>570</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>575</v>
+      </c>
+      <c r="B216" s="2">
+        <v>44415</v>
+      </c>
+      <c r="C216" t="s">
+        <v>577</v>
+      </c>
+      <c r="D216" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>589</v>
+      </c>
+      <c r="B217" s="2">
+        <v>41028</v>
+      </c>
+      <c r="C217" t="s">
+        <v>591</v>
+      </c>
+      <c r="D217" t="s">
+        <v>24</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G217" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>592</v>
+      </c>
+      <c r="B218" s="2">
+        <v>43552</v>
+      </c>
+      <c r="C218" t="s">
+        <v>594</v>
+      </c>
+      <c r="D218" t="s">
+        <v>24</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>603</v>
+      </c>
+      <c r="B219" s="2">
+        <v>38254</v>
+      </c>
+      <c r="C219" t="s">
+        <v>605</v>
+      </c>
+      <c r="D219" t="s">
+        <v>606</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G219" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>615</v>
+      </c>
+      <c r="B220" s="2">
+        <v>36836</v>
+      </c>
+      <c r="C220" t="s">
+        <v>617</v>
+      </c>
+      <c r="D220" t="s">
+        <v>618</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>619</v>
+      </c>
+      <c r="C221" t="s">
+        <v>621</v>
+      </c>
+      <c r="D221" t="s">
+        <v>622</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G221" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>627</v>
+      </c>
+      <c r="C222" t="s">
+        <v>629</v>
+      </c>
+      <c r="D222" t="s">
+        <v>630</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G222" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>641</v>
+      </c>
+      <c r="C223" t="s">
+        <v>643</v>
+      </c>
+      <c r="D223" t="s">
+        <v>644</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G223" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>656</v>
+      </c>
+      <c r="B224" s="2">
+        <v>44854</v>
+      </c>
+      <c r="C224" t="s">
+        <v>658</v>
+      </c>
+      <c r="D224" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G224" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>672</v>
+      </c>
+      <c r="B225" s="2">
+        <v>44357</v>
+      </c>
+      <c r="C225" t="s">
+        <v>674</v>
+      </c>
+      <c r="D225" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G225" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>675</v>
+      </c>
+      <c r="B226" s="2">
+        <v>36610</v>
+      </c>
+      <c r="C226" t="s">
+        <v>677</v>
+      </c>
+      <c r="D226" t="s">
+        <v>678</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G226" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>692</v>
+      </c>
+      <c r="B227" s="2">
+        <v>36803</v>
+      </c>
+      <c r="C227" t="s">
+        <v>694</v>
+      </c>
+      <c r="D227" t="s">
+        <v>695</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G227" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>700</v>
+      </c>
+      <c r="C228" t="s">
+        <v>702</v>
+      </c>
+      <c r="D228" t="s">
+        <v>703</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G228" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>708</v>
+      </c>
+      <c r="C229" t="s">
+        <v>262</v>
+      </c>
+      <c r="D229" t="s">
+        <v>709</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G229" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>714</v>
+      </c>
+      <c r="C230" t="s">
+        <v>716</v>
+      </c>
+      <c r="D230" t="s">
+        <v>717</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G230" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>718</v>
+      </c>
+      <c r="B231" s="2">
+        <v>43645</v>
+      </c>
+      <c r="C231" t="s">
+        <v>720</v>
+      </c>
+      <c r="D231" t="s">
+        <v>24</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G231" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>725</v>
+      </c>
+      <c r="B232" s="2">
+        <v>44715</v>
+      </c>
+      <c r="C232" t="s">
+        <v>727</v>
+      </c>
+      <c r="D232" t="s">
+        <v>24</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G232" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>728</v>
+      </c>
+      <c r="B233" s="2">
+        <v>40356</v>
+      </c>
+      <c r="C233" t="s">
+        <v>730</v>
+      </c>
+      <c r="D233" t="s">
+        <v>24</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G233" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>734</v>
+      </c>
+      <c r="B234" s="2">
+        <v>44362</v>
+      </c>
+      <c r="C234" t="s">
+        <v>736</v>
+      </c>
+      <c r="D234" t="s">
+        <v>24</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G234" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>740</v>
+      </c>
+      <c r="B235" s="2">
+        <v>39629</v>
+      </c>
+      <c r="C235" t="s">
+        <v>742</v>
+      </c>
+      <c r="D235" t="s">
+        <v>743</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G235" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>744</v>
+      </c>
+      <c r="C236" t="s">
+        <v>746</v>
+      </c>
+      <c r="D236" t="s">
+        <v>747</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G236" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>749</v>
+      </c>
+      <c r="B237" s="2">
+        <v>41257</v>
+      </c>
+      <c r="C237" t="s">
+        <v>751</v>
+      </c>
+      <c r="D237" t="s">
+        <v>752</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G237" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>760</v>
+      </c>
+      <c r="B238" s="2">
+        <v>41578</v>
+      </c>
+      <c r="C238" t="s">
+        <v>762</v>
+      </c>
+      <c r="D238" t="s">
+        <v>24</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G238" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>774</v>
+      </c>
+      <c r="B239" s="2">
+        <v>37355</v>
+      </c>
+      <c r="C239" t="s">
+        <v>776</v>
+      </c>
+      <c r="D239" t="s">
+        <v>777</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G239" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>778</v>
+      </c>
+      <c r="C240" t="s">
+        <v>780</v>
+      </c>
+      <c r="D240" t="s">
+        <v>781</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G240" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>788</v>
+      </c>
+      <c r="C241" t="s">
+        <v>790</v>
+      </c>
+      <c r="D241" t="s">
+        <v>791</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G241" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>792</v>
+      </c>
+      <c r="C242" t="s">
+        <v>794</v>
+      </c>
+      <c r="D242" t="s">
+        <v>795</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G242" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>811</v>
+      </c>
+      <c r="C243" t="s">
+        <v>813</v>
+      </c>
+      <c r="D243" t="s">
+        <v>814</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G243" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="135" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>815</v>
+      </c>
+      <c r="B244" s="2">
+        <v>36860</v>
+      </c>
+      <c r="C244" t="s">
+        <v>817</v>
+      </c>
+      <c r="D244" t="s">
+        <v>818</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G244" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>822</v>
+      </c>
+      <c r="B245" s="2">
+        <v>41846</v>
+      </c>
+      <c r="C245" t="s">
+        <v>824</v>
+      </c>
+      <c r="D245" t="s">
+        <v>24</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G245" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>829</v>
+      </c>
+      <c r="B246" s="2">
+        <v>40268</v>
+      </c>
+      <c r="C246" t="s">
+        <v>831</v>
+      </c>
+      <c r="D246" t="s">
+        <v>24</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G246" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>850</v>
+      </c>
+      <c r="B247" s="2">
+        <v>37987</v>
+      </c>
+      <c r="C247" t="s">
+        <v>852</v>
+      </c>
+      <c r="D247" t="s">
+        <v>853</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G247" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="150" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>863</v>
+      </c>
+      <c r="C248" t="s">
+        <v>865</v>
+      </c>
+      <c r="D248" t="s">
+        <v>866</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G248" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>884</v>
+      </c>
+      <c r="B249" s="2">
+        <v>39769</v>
+      </c>
+      <c r="C249" t="s">
+        <v>886</v>
+      </c>
+      <c r="D249" t="s">
+        <v>887</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G249" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>888</v>
+      </c>
+      <c r="B250" s="2">
+        <v>42167</v>
+      </c>
+      <c r="C250" t="s">
+        <v>890</v>
+      </c>
+      <c r="D250" t="s">
+        <v>891</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G250" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>896</v>
+      </c>
+      <c r="B251" s="2">
+        <v>43628</v>
+      </c>
+      <c r="C251" t="s">
+        <v>898</v>
+      </c>
+      <c r="D251" t="s">
+        <v>24</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G251" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>899</v>
+      </c>
+      <c r="B252" s="2">
+        <v>43744</v>
+      </c>
+      <c r="C252" t="s">
+        <v>901</v>
+      </c>
+      <c r="D252" t="s">
+        <v>902</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G252" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>903</v>
+      </c>
+      <c r="C253" t="s">
+        <v>905</v>
+      </c>
+      <c r="D253" t="s">
+        <v>906</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>911</v>
+      </c>
+      <c r="C254" t="s">
+        <v>913</v>
+      </c>
+      <c r="D254" t="s">
+        <v>914</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>401</v>
+      </c>
+      <c r="B255" s="2">
+        <v>43899</v>
+      </c>
+      <c r="C255" t="s">
+        <v>916</v>
+      </c>
+      <c r="D255" t="s">
+        <v>24</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G255" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>925</v>
+      </c>
+      <c r="C256" t="s">
+        <v>927</v>
+      </c>
+      <c r="D256" t="s">
+        <v>928</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G256" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>929</v>
+      </c>
+      <c r="C257" t="s">
+        <v>931</v>
+      </c>
+      <c r="D257" t="s">
+        <v>932</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G257" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>933</v>
+      </c>
+      <c r="C258" t="s">
+        <v>935</v>
+      </c>
+      <c r="D258" t="s">
+        <v>936</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>937</v>
+      </c>
+      <c r="C259" t="s">
+        <v>939</v>
+      </c>
+      <c r="D259" t="s">
+        <v>940</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G259" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>941</v>
+      </c>
+      <c r="B260" s="2">
+        <v>40589</v>
+      </c>
+      <c r="C260" t="s">
+        <v>943</v>
+      </c>
+      <c r="D260" t="s">
+        <v>24</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G260" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>944</v>
+      </c>
+      <c r="B261" s="2">
+        <v>38726</v>
+      </c>
+      <c r="C261" t="s">
+        <v>946</v>
+      </c>
+      <c r="D261" t="s">
+        <v>947</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G261" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>948</v>
+      </c>
+      <c r="B262" s="2">
+        <v>40957</v>
+      </c>
+      <c r="C262" t="s">
+        <v>950</v>
+      </c>
+      <c r="D262" t="s">
+        <v>24</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G262" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>955</v>
+      </c>
+      <c r="B263" s="2">
+        <v>40482</v>
+      </c>
+      <c r="C263" t="s">
+        <v>957</v>
+      </c>
+      <c r="D263" t="s">
+        <v>24</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G263" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>974</v>
+      </c>
+      <c r="B264" s="2">
+        <v>43503</v>
+      </c>
+      <c r="C264" t="s">
+        <v>976</v>
+      </c>
+      <c r="D264" t="s">
+        <v>24</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G264" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>977</v>
+      </c>
+      <c r="C265" t="s">
+        <v>979</v>
+      </c>
+      <c r="D265" t="s">
+        <v>980</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G265" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>981</v>
+      </c>
+      <c r="C266" t="s">
+        <v>983</v>
+      </c>
+      <c r="D266" t="s">
+        <v>984</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G266" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>985</v>
+      </c>
+      <c r="B267" s="2">
+        <v>38664</v>
+      </c>
+      <c r="C267" t="s">
+        <v>987</v>
+      </c>
+      <c r="D267" t="s">
+        <v>988</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G267" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>992</v>
+      </c>
+      <c r="C268" t="s">
+        <v>994</v>
+      </c>
+      <c r="D268" t="s">
+        <v>995</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>996</v>
+      </c>
+      <c r="B269" s="2">
+        <v>42536</v>
+      </c>
+      <c r="C269" t="s">
+        <v>998</v>
+      </c>
+      <c r="D269" t="s">
+        <v>999</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G269" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>822</v>
+      </c>
+      <c r="B270" s="2">
+        <v>41993</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D270" t="s">
+        <v>24</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G270" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
         <v>44</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B271" s="2">
         <v>42329</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C271" t="s">
         <v>46</v>
       </c>
-      <c r="D146" t="s">
-        <v>24</v>
-      </c>
-      <c r="E146" s="4" t="s">
+      <c r="D271" t="s">
+        <v>24</v>
+      </c>
+      <c r="E271" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>50</v>
-      </c>
-      <c r="B147" s="2">
-        <v>40837</v>
-      </c>
-      <c r="C147" t="s">
-        <v>52</v>
-      </c>
-      <c r="D147" t="s">
-        <v>24</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="105" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>53</v>
-      </c>
-      <c r="B148" s="2">
-        <v>37748</v>
-      </c>
-      <c r="C148" t="s">
-        <v>55</v>
-      </c>
-      <c r="D148" t="s">
-        <v>56</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>60</v>
-      </c>
-      <c r="C149" t="s">
-        <v>62</v>
-      </c>
-      <c r="D149" t="s">
-        <v>63</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="105" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>71</v>
-      </c>
-      <c r="B150" s="2">
-        <v>42303</v>
-      </c>
-      <c r="C150" t="s">
-        <v>73</v>
-      </c>
-      <c r="D150" t="s">
-        <v>24</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>74</v>
-      </c>
-      <c r="B151" s="2">
-        <v>36690</v>
-      </c>
-      <c r="C151" t="s">
-        <v>76</v>
-      </c>
-      <c r="D151" t="s">
-        <v>77</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>78</v>
-      </c>
-      <c r="B152" s="2">
-        <v>37504</v>
-      </c>
-      <c r="C152" t="s">
-        <v>80</v>
-      </c>
-      <c r="D152" t="s">
-        <v>81</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="165" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>82</v>
-      </c>
-      <c r="B153" s="2">
-        <v>43652</v>
-      </c>
-      <c r="C153" t="s">
-        <v>84</v>
-      </c>
-      <c r="D153" t="s">
-        <v>85</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>100</v>
-      </c>
-      <c r="B154" s="2">
-        <v>38432</v>
-      </c>
-      <c r="C154" t="s">
-        <v>102</v>
-      </c>
-      <c r="D154" t="s">
-        <v>103</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>104</v>
-      </c>
-      <c r="C155" t="s">
-        <v>106</v>
-      </c>
-      <c r="D155" t="s">
-        <v>107</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>108</v>
-      </c>
-      <c r="C156" t="s">
-        <v>110</v>
-      </c>
-      <c r="D156" t="s">
-        <v>111</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>115</v>
-      </c>
-      <c r="C157" t="s">
-        <v>117</v>
-      </c>
-      <c r="D157" t="s">
-        <v>118</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>119</v>
-      </c>
-      <c r="C158" t="s">
-        <v>121</v>
-      </c>
-      <c r="D158" t="s">
-        <v>43</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>125</v>
-      </c>
-      <c r="C159" t="s">
-        <v>127</v>
-      </c>
-      <c r="D159" t="s">
-        <v>128</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>133</v>
-      </c>
-      <c r="B160" s="2">
-        <v>40954</v>
-      </c>
-      <c r="C160" t="s">
-        <v>135</v>
-      </c>
-      <c r="D160" t="s">
-        <v>24</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>140</v>
-      </c>
-      <c r="B161" s="2">
-        <v>43217</v>
-      </c>
-      <c r="C161" t="s">
-        <v>142</v>
-      </c>
-      <c r="D161" t="s">
-        <v>24</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="105" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="H271" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
         <v>154</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B272" s="2">
         <v>38701</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C272" t="s">
         <v>156</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D272" t="s">
         <v>157</v>
       </c>
-      <c r="E162" s="4" t="s">
+      <c r="E272" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>162</v>
-      </c>
-      <c r="B163" s="2">
-        <v>36679</v>
-      </c>
-      <c r="C163" t="s">
-        <v>164</v>
-      </c>
-      <c r="D163" t="s">
-        <v>165</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>166</v>
-      </c>
-      <c r="B164" s="2">
-        <v>41166</v>
-      </c>
-      <c r="C164" t="s">
-        <v>168</v>
-      </c>
-      <c r="D164" t="s">
-        <v>24</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>169</v>
-      </c>
-      <c r="B165" s="2">
-        <v>38269</v>
-      </c>
-      <c r="C165" t="s">
-        <v>171</v>
-      </c>
-      <c r="D165" t="s">
-        <v>172</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>173</v>
-      </c>
-      <c r="C166" t="s">
-        <v>175</v>
-      </c>
-      <c r="D166" t="s">
-        <v>128</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>182</v>
-      </c>
-      <c r="C167" t="s">
-        <v>184</v>
-      </c>
-      <c r="D167" t="s">
-        <v>185</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>193</v>
-      </c>
-      <c r="B168" s="2">
-        <v>39930</v>
-      </c>
-      <c r="C168" t="s">
-        <v>195</v>
-      </c>
-      <c r="D168" t="s">
-        <v>24</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>196</v>
-      </c>
-      <c r="B169" s="2">
-        <v>38700</v>
-      </c>
-      <c r="C169" t="s">
-        <v>198</v>
-      </c>
-      <c r="D169" t="s">
-        <v>199</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>200</v>
-      </c>
-      <c r="B170" s="2">
-        <v>41844</v>
-      </c>
-      <c r="C170" t="s">
-        <v>202</v>
-      </c>
-      <c r="D170" t="s">
-        <v>24</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>203</v>
-      </c>
-      <c r="C171" t="s">
-        <v>205</v>
-      </c>
-      <c r="D171" t="s">
-        <v>206</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>207</v>
-      </c>
-      <c r="B172" s="2">
-        <v>36587</v>
-      </c>
-      <c r="C172" t="s">
-        <v>209</v>
-      </c>
-      <c r="D172" t="s">
-        <v>210</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="H272" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
         <v>211</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B273" s="2">
         <v>44060</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C273" t="s">
         <v>213</v>
       </c>
-      <c r="D173" t="s">
-        <v>24</v>
-      </c>
-      <c r="E173" s="4" t="s">
+      <c r="D273" t="s">
+        <v>24</v>
+      </c>
+      <c r="E273" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>214</v>
-      </c>
-      <c r="B174" s="2">
-        <v>36954</v>
-      </c>
-      <c r="C174" t="s">
-        <v>216</v>
-      </c>
-      <c r="D174" t="s">
-        <v>217</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="105" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>225</v>
-      </c>
-      <c r="B175" s="2">
-        <v>39743</v>
-      </c>
-      <c r="C175" t="s">
-        <v>227</v>
-      </c>
-      <c r="D175" t="s">
-        <v>228</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="150" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="H273" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
         <v>229</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B274" s="2">
         <v>44404</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C274" t="s">
         <v>231</v>
       </c>
-      <c r="D176" t="s">
-        <v>24</v>
-      </c>
-      <c r="E176" s="4" t="s">
+      <c r="D274" t="s">
+        <v>24</v>
+      </c>
+      <c r="E274" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>240</v>
-      </c>
-      <c r="B177" s="2">
-        <v>37634</v>
-      </c>
-      <c r="C177" t="s">
-        <v>242</v>
-      </c>
-      <c r="D177" t="s">
-        <v>243</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>244</v>
-      </c>
-      <c r="B178" s="2">
-        <v>43676</v>
-      </c>
-      <c r="C178" t="s">
-        <v>246</v>
-      </c>
-      <c r="D178" t="s">
-        <v>24</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>254</v>
-      </c>
-      <c r="B179" s="2">
-        <v>43995</v>
-      </c>
-      <c r="C179" t="s">
-        <v>256</v>
-      </c>
-      <c r="D179" t="s">
-        <v>24</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>257</v>
-      </c>
-      <c r="B180" s="2">
-        <v>44809</v>
-      </c>
-      <c r="C180" t="s">
-        <v>259</v>
-      </c>
-      <c r="D180" t="s">
-        <v>24</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>260</v>
-      </c>
-      <c r="B181" s="2">
-        <v>40889</v>
-      </c>
-      <c r="C181" t="s">
-        <v>262</v>
-      </c>
-      <c r="D181" t="s">
-        <v>24</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>273</v>
-      </c>
-      <c r="B182" s="2">
-        <v>44712</v>
-      </c>
-      <c r="C182" t="s">
-        <v>275</v>
-      </c>
-      <c r="D182" t="s">
-        <v>24</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="H274" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>279</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B275" s="2">
         <v>44043</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C275" t="s">
         <v>281</v>
       </c>
-      <c r="D183" t="s">
-        <v>24</v>
-      </c>
-      <c r="E183" s="4" t="s">
+      <c r="D275" t="s">
+        <v>24</v>
+      </c>
+      <c r="E275" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>282</v>
-      </c>
-      <c r="C184" t="s">
-        <v>284</v>
-      </c>
-      <c r="D184" t="s">
-        <v>285</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>286</v>
-      </c>
-      <c r="C185" t="s">
-        <v>288</v>
-      </c>
-      <c r="D185" t="s">
-        <v>289</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>290</v>
-      </c>
-      <c r="B186" s="2">
-        <v>37291</v>
-      </c>
-      <c r="C186" t="s">
-        <v>292</v>
-      </c>
-      <c r="D186" t="s">
-        <v>293</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="120" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>294</v>
-      </c>
-      <c r="B187" s="2">
-        <v>36972</v>
-      </c>
-      <c r="C187" t="s">
-        <v>296</v>
-      </c>
-      <c r="D187" t="s">
-        <v>297</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>298</v>
-      </c>
-      <c r="B188" s="2">
-        <v>42706</v>
-      </c>
-      <c r="C188" t="s">
-        <v>300</v>
-      </c>
-      <c r="D188" t="s">
-        <v>24</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>308</v>
-      </c>
-      <c r="B189" s="2">
-        <v>42199</v>
-      </c>
-      <c r="C189" t="s">
-        <v>310</v>
-      </c>
-      <c r="D189" t="s">
-        <v>24</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>311</v>
-      </c>
-      <c r="B190" s="2">
-        <v>43867</v>
-      </c>
-      <c r="C190" t="s">
-        <v>313</v>
-      </c>
-      <c r="D190" t="s">
-        <v>24</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="225" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+      <c r="H275" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="225" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>314</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C276" t="s">
         <v>316</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D276" t="s">
         <v>317</v>
       </c>
-      <c r="E191" s="4" t="s">
+      <c r="E276" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>325</v>
-      </c>
-      <c r="B192" s="2">
-        <v>40933</v>
-      </c>
-      <c r="C192" t="s">
-        <v>327</v>
-      </c>
-      <c r="D192" t="s">
-        <v>24</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>331</v>
-      </c>
-      <c r="B193" s="2">
-        <v>44848</v>
-      </c>
-      <c r="C193" t="s">
-        <v>333</v>
-      </c>
-      <c r="D193" t="s">
-        <v>24</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>345</v>
-      </c>
-      <c r="C194" t="s">
-        <v>347</v>
-      </c>
-      <c r="D194" t="s">
-        <v>348</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="195" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+      <c r="H276" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="195" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
         <v>352</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C277" t="s">
         <v>354</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D277" t="s">
         <v>355</v>
       </c>
-      <c r="E195" s="4" t="s">
+      <c r="E277" s="4" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>356</v>
-      </c>
-      <c r="B196" s="2">
-        <v>39883</v>
-      </c>
-      <c r="C196" t="s">
-        <v>358</v>
-      </c>
-      <c r="D196" t="s">
-        <v>24</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+      <c r="H277" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
         <v>371</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C278" t="s">
         <v>373</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D278" t="s">
         <v>374</v>
       </c>
-      <c r="E197" s="4" t="s">
+      <c r="E278" s="4" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>390</v>
-      </c>
-      <c r="B198" s="2">
-        <v>39970</v>
-      </c>
-      <c r="C198" t="s">
-        <v>392</v>
-      </c>
-      <c r="D198" t="s">
-        <v>24</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>397</v>
-      </c>
-      <c r="C199" t="s">
-        <v>399</v>
-      </c>
-      <c r="D199" t="s">
-        <v>400</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>404</v>
-      </c>
-      <c r="C200" t="s">
-        <v>406</v>
-      </c>
-      <c r="D200" t="s">
-        <v>407</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>411</v>
-      </c>
-      <c r="B201" s="2">
-        <v>44798</v>
-      </c>
-      <c r="C201" t="s">
-        <v>413</v>
-      </c>
-      <c r="D201" t="s">
-        <v>24</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>414</v>
-      </c>
-      <c r="C202" t="s">
-        <v>416</v>
-      </c>
-      <c r="D202" t="s">
-        <v>417</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>418</v>
-      </c>
-      <c r="C203" t="s">
-        <v>420</v>
-      </c>
-      <c r="D203" t="s">
-        <v>421</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>422</v>
-      </c>
-      <c r="B204" s="2">
-        <v>44506</v>
-      </c>
-      <c r="C204" t="s">
-        <v>424</v>
-      </c>
-      <c r="D204" t="s">
-        <v>24</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>425</v>
-      </c>
-      <c r="B205" s="2">
-        <v>40634</v>
-      </c>
-      <c r="C205" t="s">
-        <v>427</v>
-      </c>
-      <c r="D205" t="s">
-        <v>24</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>428</v>
-      </c>
-      <c r="B206" s="2">
-        <v>40876</v>
-      </c>
-      <c r="C206" t="s">
-        <v>430</v>
-      </c>
-      <c r="D206" t="s">
-        <v>24</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="135" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>435</v>
-      </c>
-      <c r="B207" s="2">
-        <v>38747</v>
-      </c>
-      <c r="C207" t="s">
-        <v>437</v>
-      </c>
-      <c r="D207" t="s">
-        <v>438</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>439</v>
-      </c>
-      <c r="C208" t="s">
-        <v>441</v>
-      </c>
-      <c r="D208" t="s">
-        <v>442</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>443</v>
-      </c>
-      <c r="C209" t="s">
-        <v>445</v>
-      </c>
-      <c r="D209" t="s">
-        <v>446</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="150" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+      <c r="H278" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>447</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B279" s="2">
         <v>42997</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C279" t="s">
         <v>449</v>
       </c>
-      <c r="D210" t="s">
-        <v>24</v>
-      </c>
-      <c r="E210" s="4" t="s">
+      <c r="D279" t="s">
+        <v>24</v>
+      </c>
+      <c r="E279" s="4" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="120" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>450</v>
-      </c>
-      <c r="B211" s="2">
-        <v>39743</v>
-      </c>
-      <c r="C211" t="s">
-        <v>452</v>
-      </c>
-      <c r="D211" t="s">
-        <v>453</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>454</v>
-      </c>
-      <c r="C212" t="s">
-        <v>456</v>
-      </c>
-      <c r="D212" t="s">
-        <v>457</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="165" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+      <c r="H279" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="165" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
         <v>458</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B280" s="2">
         <v>41794</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C280" t="s">
         <v>460</v>
       </c>
-      <c r="D213" t="s">
-        <v>24</v>
-      </c>
-      <c r="E213" s="4" t="s">
+      <c r="D280" t="s">
+        <v>24</v>
+      </c>
+      <c r="E280" s="4" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>465</v>
-      </c>
-      <c r="C214" t="s">
-        <v>467</v>
-      </c>
-      <c r="D214" t="s">
-        <v>468</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>472</v>
-      </c>
-      <c r="B215" s="2">
-        <v>41435</v>
-      </c>
-      <c r="C215" t="s">
-        <v>474</v>
-      </c>
-      <c r="D215" t="s">
-        <v>475</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="150" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+      <c r="H280" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
         <v>479</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B281" s="2">
         <v>44419</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C281" t="s">
         <v>481</v>
       </c>
-      <c r="D216" t="s">
-        <v>24</v>
-      </c>
-      <c r="E216" s="4" t="s">
+      <c r="D281" t="s">
+        <v>24</v>
+      </c>
+      <c r="E281" s="4" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>499</v>
-      </c>
-      <c r="C217" t="s">
-        <v>501</v>
-      </c>
-      <c r="D217" t="s">
-        <v>502</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>507</v>
-      </c>
-      <c r="B218" s="2">
-        <v>37130</v>
-      </c>
-      <c r="C218" t="s">
-        <v>509</v>
-      </c>
-      <c r="D218" t="s">
-        <v>510</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>511</v>
-      </c>
-      <c r="B219" s="2">
-        <v>44057</v>
-      </c>
-      <c r="C219" t="s">
-        <v>513</v>
-      </c>
-      <c r="D219" t="s">
-        <v>24</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>514</v>
-      </c>
-      <c r="B220" s="2">
-        <v>44816</v>
-      </c>
-      <c r="C220" t="s">
-        <v>516</v>
-      </c>
-      <c r="D220" t="s">
-        <v>24</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>527</v>
-      </c>
-      <c r="B221" s="2">
-        <v>38608</v>
-      </c>
-      <c r="C221" t="s">
-        <v>529</v>
-      </c>
-      <c r="D221" t="s">
-        <v>530</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="120" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+      <c r="H281" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
         <v>531</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C282" t="s">
         <v>533</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D282" t="s">
         <v>534</v>
       </c>
-      <c r="E222" s="4" t="s">
+      <c r="E282" s="4" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>539</v>
-      </c>
-      <c r="B223" s="2">
-        <v>40295</v>
-      </c>
-      <c r="C223" t="s">
-        <v>541</v>
-      </c>
-      <c r="D223" t="s">
-        <v>24</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>542</v>
-      </c>
-      <c r="C224" t="s">
-        <v>544</v>
-      </c>
-      <c r="D224" t="s">
-        <v>545</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>546</v>
-      </c>
-      <c r="B225" s="2">
-        <v>38215</v>
-      </c>
-      <c r="C225" t="s">
-        <v>548</v>
-      </c>
-      <c r="D225" t="s">
-        <v>549</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>561</v>
-      </c>
-      <c r="B226" s="2">
-        <v>41403</v>
-      </c>
-      <c r="C226" t="s">
-        <v>563</v>
-      </c>
-      <c r="D226" t="s">
-        <v>24</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>567</v>
-      </c>
-      <c r="C227" t="s">
-        <v>569</v>
-      </c>
-      <c r="D227" t="s">
-        <v>570</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>575</v>
-      </c>
-      <c r="B228" s="2">
-        <v>44415</v>
-      </c>
-      <c r="C228" t="s">
-        <v>577</v>
-      </c>
-      <c r="D228" t="s">
-        <v>24</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="330" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+      <c r="H282" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="330" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
         <v>585</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C283" t="s">
         <v>587</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D283" t="s">
         <v>588</v>
       </c>
-      <c r="E229" s="4" t="s">
+      <c r="E283" s="4" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>589</v>
-      </c>
-      <c r="B230" s="2">
-        <v>41028</v>
-      </c>
-      <c r="C230" t="s">
-        <v>591</v>
-      </c>
-      <c r="D230" t="s">
-        <v>24</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>592</v>
-      </c>
-      <c r="B231" s="2">
-        <v>43552</v>
-      </c>
-      <c r="C231" t="s">
-        <v>594</v>
-      </c>
-      <c r="D231" t="s">
-        <v>24</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>603</v>
-      </c>
-      <c r="B232" s="2">
-        <v>38254</v>
-      </c>
-      <c r="C232" t="s">
-        <v>605</v>
-      </c>
-      <c r="D232" t="s">
-        <v>606</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>615</v>
-      </c>
-      <c r="B233" s="2">
-        <v>36836</v>
-      </c>
-      <c r="C233" t="s">
-        <v>617</v>
-      </c>
-      <c r="D233" t="s">
-        <v>618</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>619</v>
-      </c>
-      <c r="C234" t="s">
-        <v>621</v>
-      </c>
-      <c r="D234" t="s">
-        <v>622</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>627</v>
-      </c>
-      <c r="C235" t="s">
-        <v>629</v>
-      </c>
-      <c r="D235" t="s">
-        <v>630</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+      <c r="H283" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>638</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B284" s="2">
         <v>42999</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C284" t="s">
         <v>640</v>
       </c>
-      <c r="D236" t="s">
-        <v>24</v>
-      </c>
-      <c r="E236" s="4" t="s">
+      <c r="D284" t="s">
+        <v>24</v>
+      </c>
+      <c r="E284" s="4" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>641</v>
-      </c>
-      <c r="C237" t="s">
-        <v>643</v>
-      </c>
-      <c r="D237" t="s">
-        <v>644</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>656</v>
-      </c>
-      <c r="B238" s="2">
-        <v>44854</v>
-      </c>
-      <c r="C238" t="s">
-        <v>658</v>
-      </c>
-      <c r="D238" t="s">
-        <v>24</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+      <c r="H284" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
         <v>669</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B285" s="2">
         <v>40694</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C285" t="s">
         <v>671</v>
       </c>
-      <c r="D239" t="s">
-        <v>24</v>
-      </c>
-      <c r="E239" s="4" t="s">
+      <c r="D285" t="s">
+        <v>24</v>
+      </c>
+      <c r="E285" s="4" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>672</v>
-      </c>
-      <c r="B240" s="2">
-        <v>44357</v>
-      </c>
-      <c r="C240" t="s">
-        <v>674</v>
-      </c>
-      <c r="D240" t="s">
-        <v>24</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>675</v>
-      </c>
-      <c r="B241" s="2">
-        <v>36610</v>
-      </c>
-      <c r="C241" t="s">
-        <v>677</v>
-      </c>
-      <c r="D241" t="s">
-        <v>678</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>692</v>
-      </c>
-      <c r="B242" s="2">
-        <v>36803</v>
-      </c>
-      <c r="C242" t="s">
-        <v>694</v>
-      </c>
-      <c r="D242" t="s">
-        <v>695</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="120" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>700</v>
-      </c>
-      <c r="C243" t="s">
-        <v>702</v>
-      </c>
-      <c r="D243" t="s">
-        <v>703</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>708</v>
-      </c>
-      <c r="C244" t="s">
-        <v>262</v>
-      </c>
-      <c r="D244" t="s">
-        <v>709</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="120" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+      <c r="H285" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
         <v>710</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C286" t="s">
         <v>712</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D286" t="s">
         <v>713</v>
       </c>
-      <c r="E245" s="4" t="s">
+      <c r="E286" s="4" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>714</v>
-      </c>
-      <c r="C246" t="s">
-        <v>716</v>
-      </c>
-      <c r="D246" t="s">
-        <v>717</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>718</v>
-      </c>
-      <c r="B247" s="2">
-        <v>43645</v>
-      </c>
-      <c r="C247" t="s">
-        <v>720</v>
-      </c>
-      <c r="D247" t="s">
-        <v>24</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>725</v>
-      </c>
-      <c r="B248" s="2">
-        <v>44715</v>
-      </c>
-      <c r="C248" t="s">
-        <v>727</v>
-      </c>
-      <c r="D248" t="s">
-        <v>24</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="120" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>728</v>
-      </c>
-      <c r="B249" s="2">
-        <v>40356</v>
-      </c>
-      <c r="C249" t="s">
-        <v>730</v>
-      </c>
-      <c r="D249" t="s">
-        <v>24</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>734</v>
-      </c>
-      <c r="B250" s="2">
-        <v>44362</v>
-      </c>
-      <c r="C250" t="s">
-        <v>736</v>
-      </c>
-      <c r="D250" t="s">
-        <v>24</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>740</v>
-      </c>
-      <c r="B251" s="2">
-        <v>39629</v>
-      </c>
-      <c r="C251" t="s">
-        <v>742</v>
-      </c>
-      <c r="D251" t="s">
-        <v>743</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>744</v>
-      </c>
-      <c r="C252" t="s">
-        <v>746</v>
-      </c>
-      <c r="D252" t="s">
-        <v>747</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>749</v>
-      </c>
-      <c r="B253" s="2">
-        <v>41257</v>
-      </c>
-      <c r="C253" t="s">
-        <v>751</v>
-      </c>
-      <c r="D253" t="s">
-        <v>752</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>760</v>
-      </c>
-      <c r="B254" s="2">
-        <v>41578</v>
-      </c>
-      <c r="C254" t="s">
-        <v>762</v>
-      </c>
-      <c r="D254" t="s">
-        <v>24</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>774</v>
-      </c>
-      <c r="B255" s="2">
-        <v>37355</v>
-      </c>
-      <c r="C255" t="s">
-        <v>776</v>
-      </c>
-      <c r="D255" t="s">
-        <v>777</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>778</v>
-      </c>
-      <c r="C256" t="s">
-        <v>780</v>
-      </c>
-      <c r="D256" t="s">
-        <v>781</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>788</v>
-      </c>
-      <c r="C257" t="s">
-        <v>790</v>
-      </c>
-      <c r="D257" t="s">
-        <v>791</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>792</v>
-      </c>
-      <c r="C258" t="s">
-        <v>794</v>
-      </c>
-      <c r="D258" t="s">
-        <v>795</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>811</v>
-      </c>
-      <c r="C259" t="s">
-        <v>813</v>
-      </c>
-      <c r="D259" t="s">
-        <v>814</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="135" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>815</v>
-      </c>
-      <c r="B260" s="2">
-        <v>36860</v>
-      </c>
-      <c r="C260" t="s">
-        <v>817</v>
-      </c>
-      <c r="D260" t="s">
-        <v>818</v>
-      </c>
-      <c r="E260" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>822</v>
-      </c>
-      <c r="B261" s="2">
-        <v>41846</v>
-      </c>
-      <c r="C261" t="s">
-        <v>824</v>
-      </c>
-      <c r="D261" t="s">
-        <v>24</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>829</v>
-      </c>
-      <c r="B262" s="2">
-        <v>40268</v>
-      </c>
-      <c r="C262" t="s">
-        <v>831</v>
-      </c>
-      <c r="D262" t="s">
-        <v>24</v>
-      </c>
-      <c r="E262" s="4" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>850</v>
-      </c>
-      <c r="B263" s="2">
-        <v>37987</v>
-      </c>
-      <c r="C263" t="s">
-        <v>852</v>
-      </c>
-      <c r="D263" t="s">
-        <v>853</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="135" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+      <c r="H286" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="135" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>854</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B287" s="2">
         <v>43304</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C287" t="s">
         <v>856</v>
       </c>
-      <c r="D264" t="s">
-        <v>24</v>
-      </c>
-      <c r="E264" s="4" t="s">
+      <c r="D287" t="s">
+        <v>24</v>
+      </c>
+      <c r="E287" s="4" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" ht="150" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>863</v>
-      </c>
-      <c r="C265" t="s">
-        <v>865</v>
-      </c>
-      <c r="D265" t="s">
-        <v>866</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>884</v>
-      </c>
-      <c r="B266" s="2">
-        <v>39769</v>
-      </c>
-      <c r="C266" t="s">
-        <v>886</v>
-      </c>
-      <c r="D266" t="s">
-        <v>887</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>888</v>
-      </c>
-      <c r="B267" s="2">
-        <v>42167</v>
-      </c>
-      <c r="C267" t="s">
-        <v>890</v>
-      </c>
-      <c r="D267" t="s">
-        <v>891</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>896</v>
-      </c>
-      <c r="B268" s="2">
-        <v>43628</v>
-      </c>
-      <c r="C268" t="s">
-        <v>898</v>
-      </c>
-      <c r="D268" t="s">
-        <v>24</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>899</v>
-      </c>
-      <c r="B269" s="2">
-        <v>43744</v>
-      </c>
-      <c r="C269" t="s">
-        <v>901</v>
-      </c>
-      <c r="D269" t="s">
-        <v>902</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>903</v>
-      </c>
-      <c r="C270" t="s">
-        <v>905</v>
-      </c>
-      <c r="D270" t="s">
-        <v>906</v>
-      </c>
-      <c r="E270" s="4" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>911</v>
-      </c>
-      <c r="C271" t="s">
-        <v>913</v>
-      </c>
-      <c r="D271" t="s">
-        <v>914</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>401</v>
-      </c>
-      <c r="B272" s="2">
-        <v>43899</v>
-      </c>
-      <c r="C272" t="s">
-        <v>916</v>
-      </c>
-      <c r="D272" t="s">
-        <v>24</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="150" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+      <c r="H287" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
         <v>917</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C288" t="s">
         <v>919</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D288" t="s">
         <v>920</v>
       </c>
-      <c r="E273" s="4" t="s">
+      <c r="E288" s="4" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>925</v>
-      </c>
-      <c r="C274" t="s">
-        <v>927</v>
-      </c>
-      <c r="D274" t="s">
-        <v>928</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>929</v>
-      </c>
-      <c r="C275" t="s">
-        <v>931</v>
-      </c>
-      <c r="D275" t="s">
-        <v>932</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="120" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>933</v>
-      </c>
-      <c r="C276" t="s">
-        <v>935</v>
-      </c>
-      <c r="D276" t="s">
-        <v>936</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>937</v>
-      </c>
-      <c r="C277" t="s">
-        <v>939</v>
-      </c>
-      <c r="D277" t="s">
-        <v>940</v>
-      </c>
-      <c r="E277" s="4" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>941</v>
-      </c>
-      <c r="B278" s="2">
-        <v>40589</v>
-      </c>
-      <c r="C278" t="s">
-        <v>943</v>
-      </c>
-      <c r="D278" t="s">
-        <v>24</v>
-      </c>
-      <c r="E278" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>944</v>
-      </c>
-      <c r="B279" s="2">
-        <v>38726</v>
-      </c>
-      <c r="C279" t="s">
-        <v>946</v>
-      </c>
-      <c r="D279" t="s">
-        <v>947</v>
-      </c>
-      <c r="E279" s="4" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>948</v>
-      </c>
-      <c r="B280" s="2">
-        <v>40957</v>
-      </c>
-      <c r="C280" t="s">
-        <v>950</v>
-      </c>
-      <c r="D280" t="s">
-        <v>24</v>
-      </c>
-      <c r="E280" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>955</v>
-      </c>
-      <c r="B281" s="2">
-        <v>40482</v>
-      </c>
-      <c r="C281" t="s">
-        <v>957</v>
-      </c>
-      <c r="D281" t="s">
-        <v>24</v>
-      </c>
-      <c r="E281" s="4" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>974</v>
-      </c>
-      <c r="B282" s="2">
-        <v>43503</v>
-      </c>
-      <c r="C282" t="s">
-        <v>976</v>
-      </c>
-      <c r="D282" t="s">
-        <v>24</v>
-      </c>
-      <c r="E282" s="4" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>977</v>
-      </c>
-      <c r="C283" t="s">
-        <v>979</v>
-      </c>
-      <c r="D283" t="s">
-        <v>980</v>
-      </c>
-      <c r="E283" s="4" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>981</v>
-      </c>
-      <c r="C284" t="s">
-        <v>983</v>
-      </c>
-      <c r="D284" t="s">
-        <v>984</v>
-      </c>
-      <c r="E284" s="4" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" ht="120" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>985</v>
-      </c>
-      <c r="B285" s="2">
-        <v>38664</v>
-      </c>
-      <c r="C285" t="s">
-        <v>987</v>
-      </c>
-      <c r="D285" t="s">
-        <v>988</v>
-      </c>
-      <c r="E285" s="4" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="105" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>992</v>
-      </c>
-      <c r="C286" t="s">
-        <v>994</v>
-      </c>
-      <c r="D286" t="s">
-        <v>995</v>
-      </c>
-      <c r="E286" s="4" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>996</v>
-      </c>
-      <c r="B287" s="2">
-        <v>42536</v>
-      </c>
-      <c r="C287" t="s">
-        <v>998</v>
-      </c>
-      <c r="D287" t="s">
-        <v>999</v>
-      </c>
-      <c r="E287" s="4" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>822</v>
-      </c>
-      <c r="B288" s="2">
-        <v>41993</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D288" t="s">
-        <v>24</v>
-      </c>
-      <c r="E288" s="4" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="H288" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="240" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1010</v>
       </c>
@@ -8879,8 +10154,11 @@
       <c r="E289" s="4" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="H289" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1018</v>
       </c>
@@ -8896,8 +10174,11 @@
       <c r="E290" s="4" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="H290" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1030</v>
       </c>
@@ -8913,10 +10194,13 @@
       <c r="E291" s="4" t="s">
         <v>1031</v>
       </c>
+      <c r="H291" t="s">
+        <v>1043</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F294">
-    <sortCondition descending="1" ref="F2:F294"/>
+  <sortState ref="A2:H292">
+    <sortCondition descending="1" ref="F2:F292"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sample data/pres_sample.xlsx
+++ b/data/sample data/pres_sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexlin/PycharmProjects/thesis/data/sample data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexlin/Desktop/honors-thesis/data/sample data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EF9F40-2F6B-3245-B3A7-E932F0E57427}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1870D325-8CBE-814C-B546-CAAB1AC35264}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1400" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3451,7 +3451,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3461,6 +3461,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3494,7 +3502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3507,6 +3515,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3849,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="B147" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6022,7 +6033,7 @@
       <c r="D98" t="s">
         <v>488</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="6" t="s">
         <v>486</v>
       </c>
       <c r="F98" t="s">
